--- a/bots/crawl_ch/output/toilet_coop_2022-07-16.xlsx
+++ b/bots/crawl_ch/output/toilet_coop_2022-07-16.xlsx
@@ -579,7 +579,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
@@ -709,7 +709,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
@@ -782,7 +782,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
@@ -855,7 +855,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
@@ -928,7 +928,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
@@ -1001,7 +1001,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
@@ -1204,50 +1204,50 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>6467117</t>
+          <t>6346775</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Prix Garantie Toilettenpapier 3-lagig 10 Rollen</t>
+          <t>Tempo Premium 4-lagig 24 Rollen</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/prix-garantie-toilettenpapier-3-lagig-10-rollen/p/6467117</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tempo-premium-4-lagig-24-rollen/p/6346775</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>10Rol</t>
+          <t>24Rol</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="F12" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Tempo</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>23.25</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0.40/1Rol</t>
+          <t>0.97/1Rol</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1272,55 +1272,55 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Prix Garantie Toilettenpapier 3-lagig 10 Rollen 4.00 Schweizer Franken</t>
+          <t>Tempo Premium 4-lagig 24 Rollen 1 + 1 Aktion 23.25 Schweizer Franken</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>6346775</t>
+          <t>6467117</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Tempo Premium 4-lagig 24 Rollen</t>
+          <t>Prix Garantie Toilettenpapier 3-lagig 10 Rollen</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tempo-premium-4-lagig-24-rollen/p/6346775</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/prix-garantie-toilettenpapier-3-lagig-10-rollen/p/6467117</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>24Rol</t>
+          <t>10Rol</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F13" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Tempo</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>23.25</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>0.97/1Rol</t>
+          <t>0.40/1Rol</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1345,12 +1345,12 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Tempo Premium 4-lagig 24 Rollen 1 + 1 Aktion 23.25 Schweizer Franken</t>
+          <t>Prix Garantie Toilettenpapier 3-lagig 10 Rollen 4.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
@@ -1423,7 +1423,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
@@ -1480,7 +1480,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
@@ -1553,7 +1553,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
@@ -1610,7 +1610,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
@@ -1740,7 +1740,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
@@ -1797,7 +1797,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
@@ -1870,163 +1870,163 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>5939634</t>
+          <t>4403154</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Kleenex Box Collection</t>
+          <t>Hakle Toilettenpapier Pflegende Sauberkeit 4-lagig 9 Rollen</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>/de/kosmetik-gesundheit/gesichtspflege/kosmetiktuecher-watte/kosmetiktuecher/kleenex-box-collection/p/5939634</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/hakle-toilettenpapier-pflegende-sauberkeit-4-lagig-9-rollen/p/4403154</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>48BLT</t>
+          <t>9Rol</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="F22" t="n">
         <v>4.5</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Kleenex</t>
+          <t>Hakle</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>0.99/1Rol</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Rolle</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>1Rol</t>
+        </is>
+      </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>['kosmetik-gesundheit', 'gesichtspflege', 'kosmetiktuecher-watte', 'kosmetiktuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Kleenex Box Collection 2.20 Schweizer Franken</t>
+          <t>Hakle Toilettenpapier Pflegende Sauberkeit 4-lagig 9 Rollen 8.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>4403154</t>
+          <t>5939634</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Hakle Toilettenpapier Pflegende Sauberkeit 4-lagig 9 Rollen</t>
+          <t>Kleenex Box Collection</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/hakle-toilettenpapier-pflegende-sauberkeit-4-lagig-9-rollen/p/4403154</t>
+          <t>/de/kosmetik-gesundheit/gesichtspflege/kosmetiktuecher-watte/kosmetiktuecher/kleenex-box-collection/p/5939634</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>9Rol</t>
+          <t>48BLT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="F23" t="n">
         <v>4.5</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hakle</t>
+          <t>Kleenex</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>8.90</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>0.99/1Rol</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Rolle</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>1Rol</t>
-        </is>
-      </c>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
+          <t>['kosmetik-gesundheit', 'gesichtspflege', 'kosmetiktuecher-watte', 'kosmetiktuecher']</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Hakle Toilettenpapier Pflegende Sauberkeit 4-lagig 9 Rollen 8.90 Schweizer Franken</t>
+          <t>Kleenex Box Collection 2.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>6833369</t>
+          <t>5985677</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Tempo Taschentücher Box 100 Stück</t>
+          <t>Tempo feucht Aloe sanft &amp;amp; sensitiv 3x  42ST</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/tempo-taschentuecher-box-100-stueck/p/6833369</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/tempo-feucht-aloe-sanft-sensitiv/p/5985677</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>100ST</t>
+          <t>3x 42ST</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F24" t="n">
         <v>5</v>
@@ -2038,12 +2038,12 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>0.04/1ST</t>
+          <t>0.05/1ST</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2053,7 +2053,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2063,43 +2063,43 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Tempo Taschentücher Box 100 Stück 3.95 Schweizer Franken</t>
+          <t>Tempo feucht Aloe sanft &amp;amp; sensitiv 3x  42ST 33% Aktion 6.90 Schweizer Franken statt 10.35 Schweizer Franken</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5985677</t>
+          <t>6833369</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Tempo feucht Aloe sanft &amp;amp; sensitiv 3x  42ST</t>
+          <t>Tempo Taschentücher Box 100 Stück</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/tempo-feucht-aloe-sanft-sensitiv/p/5985677</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/tempo-taschentuecher-box-100-stueck/p/6833369</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>3x 42ST</t>
+          <t>100ST</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
         <v>5</v>
@@ -2111,12 +2111,12 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>0.05/1ST</t>
+          <t>0.04/1ST</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2126,7 +2126,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2136,17 +2136,17 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Tempo feucht Aloe sanft &amp;amp; sensitiv 3x  42ST 33% Aktion 6.90 Schweizer Franken statt 10.35 Schweizer Franken</t>
+          <t>Tempo Taschentücher Box 100 Stück 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
@@ -2219,7 +2219,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
@@ -2438,7 +2438,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
@@ -2511,7 +2511,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
@@ -2568,7 +2568,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
@@ -2641,7 +2641,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
@@ -2698,24 +2698,24 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>6384992</t>
+          <t>4489513</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Tempo Toilettenpapier Premium Kamille &amp;amp; Aloe Vera 4-lagig 32 Rollen</t>
+          <t>Tempo Toilettenpapier white 3-lagig 32 Rollen</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tempo-toilettenpapier-premium-kamille-aloe-vera-4-lagig-32-rollen/p/6384992</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tempo-toilettenpapier-white-3-lagig-32-rollen/p/4489513</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2724,7 +2724,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F34" t="n">
         <v>4</v>
@@ -2766,29 +2766,29 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Tempo Toilettenpapier Premium Kamille &amp;amp; Aloe Vera 4-lagig 32 Rollen 31.00 Schweizer Franken</t>
+          <t>Tempo Toilettenpapier white 3-lagig 32 Rollen 31.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>4489513</t>
+          <t>6384992</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Tempo Toilettenpapier white 3-lagig 32 Rollen</t>
+          <t>Tempo Toilettenpapier Premium Kamille &amp;amp; Aloe Vera 4-lagig 32 Rollen</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tempo-toilettenpapier-white-3-lagig-32-rollen/p/4489513</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tempo-toilettenpapier-premium-kamille-aloe-vera-4-lagig-32-rollen/p/6384992</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2797,7 +2797,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F35" t="n">
         <v>4</v>
@@ -2839,12 +2839,12 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Tempo Toilettenpapier white 3-lagig 32 Rollen 31.00 Schweizer Franken</t>
+          <t>Tempo Toilettenpapier Premium Kamille &amp;amp; Aloe Vera 4-lagig 32 Rollen 31.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
@@ -2917,7 +2917,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
@@ -2990,7 +2990,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
@@ -3063,7 +3063,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
@@ -3120,7 +3120,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
@@ -3191,7 +3191,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
@@ -3248,7 +3248,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
@@ -3321,7 +3321,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
@@ -3394,7 +3394,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
@@ -3467,7 +3467,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
@@ -3540,137 +3540,137 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>6286107</t>
+          <t>5985672</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Oecoplan Haushaltpapier decor &amp;amp; short, 2 Rollen 3-lagig</t>
+          <t>Tempo feucht sanft &amp;amp; pur 3x  42ST</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/oecoplan-haushaltpapier-decor-short-2-rollen-3-lagig/p/6286107</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/tempo-feucht-sanft-pur/p/5985672</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>200BLT</t>
+          <t>3x 42ST</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Tempo</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>0.05/1ST</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Oecoplan Haushaltpapier decor &amp;amp; short, 2 Rollen 3-lagig 2.50 Schweizer Franken</t>
+          <t>Tempo feucht sanft &amp;amp; pur 3x  42ST 33% Aktion 6.90 Schweizer Franken statt 10.35 Schweizer Franken</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>5985672</t>
+          <t>6286107</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Tempo feucht sanft &amp;amp; pur 3x  42ST</t>
+          <t>Oecoplan Haushaltpapier decor &amp;amp; short, 2 Rollen 3-lagig</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/tempo-feucht-sanft-pur/p/5985672</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/oecoplan-haushaltpapier-decor-short-2-rollen-3-lagig/p/6286107</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>3x 42ST</t>
+          <t>200BLT</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Tempo</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>6.90</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>0.05/1ST</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Tempo feucht sanft &amp;amp; pur 3x  42ST 33% Aktion 6.90 Schweizer Franken statt 10.35 Schweizer Franken</t>
+          <t>Oecoplan Haushaltpapier decor &amp;amp; short, 2 Rollen 3-lagig 2.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
@@ -3741,137 +3741,137 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>3373453</t>
+          <t>6498160</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Hakle feucht klassisch</t>
+          <t>subito Haushaltspapier weiss 8 Rollen</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/hakle-feucht-klassisch/p/3373453</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/subito-haushaltspapier-weiss-8-rollen/p/6498160</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>42ST</t>
+          <t>400BLT</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F49" t="n">
         <v>4.5</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Hakle</t>
+          <t>subito</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>0.08/1ST</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Hakle feucht klassisch 3.20 Schweizer Franken</t>
+          <t>subito Haushaltspapier weiss 8 Rollen 10.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>6498160</t>
+          <t>3373453</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>subito Haushaltspapier weiss 8 Rollen</t>
+          <t>Hakle feucht klassisch</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/subito-haushaltspapier-weiss-8-rollen/p/6498160</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/hakle-feucht-klassisch/p/3373453</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>400BLT</t>
+          <t>42ST</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="F50" t="n">
         <v>4.5</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>subito</t>
+          <t>Hakle</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>10.95</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>0.08/1ST</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>subito Haushaltspapier weiss 8 Rollen 10.95 Schweizer Franken</t>
+          <t>Hakle feucht klassisch 3.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
@@ -3944,7 +3944,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
@@ -4001,7 +4001,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
@@ -4074,50 +4074,48 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>6497243</t>
+          <t>6995914</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Super Soft WC-Papier Sensation 3-lagig 16 Rollen</t>
+          <t>Tela Futura FSC 3-lagig 30 Rollen</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/super-soft-wc-papier-sensation-3-lagig-16-rollen/p/6497243</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tela-futura-fsc-3-lagig-30-rollen/p/6995914</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>16Rol</t>
-        </is>
-      </c>
-      <c r="E54" t="n">
-        <v>4</v>
-      </c>
+          <t>30Rol</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
       <c r="F54" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Super Soft</t>
+          <t>Tela</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>12.95</t>
+          <t>13.95</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>0.81/1Rol</t>
+          <t>0.47/1Rol</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -4127,7 +4125,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -4142,55 +4140,55 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Super Soft WC-Papier Sensation 3-lagig 16 Rollen 12.95 Schweizer Franken</t>
+          <t>Tela Futura FSC 3-lagig 30 Rollen 50% Aktion 13.95 Schweizer Franken statt 28.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>6283679</t>
+          <t>6497243</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Oecoplan Toilettenpapier Camomille weiss 4-lagig 6 Rollen</t>
+          <t>Super Soft WC-Papier Sensation 3-lagig 16 Rollen</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/oecoplan-toilettenpapier-camomille-weiss-4-lagig-6-rollen/p/6283679</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/super-soft-wc-papier-sensation-3-lagig-16-rollen/p/6497243</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>6Rol</t>
+          <t>16Rol</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F55" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Super Soft</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>12.95</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>0.70/1Rol</t>
+          <t>0.81/1Rol</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -4200,7 +4198,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -4215,53 +4213,55 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Oecoplan Toilettenpapier Camomille weiss 4-lagig 6 Rollen 4.20 Schweizer Franken</t>
+          <t>Super Soft WC-Papier Sensation 3-lagig 16 Rollen 12.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>6995914</t>
+          <t>6283679</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Tela Futura FSC 3-lagig 30 Rollen</t>
+          <t>Oecoplan Toilettenpapier Camomille weiss 4-lagig 6 Rollen</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tela-futura-fsc-3-lagig-30-rollen/p/6995914</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/oecoplan-toilettenpapier-camomille-weiss-4-lagig-6-rollen/p/6283679</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>30Rol</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr"/>
+          <t>6Rol</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>13</v>
+      </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Tela</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>13.95</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>0.47/1Rol</t>
+          <t>0.70/1Rol</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -4271,7 +4271,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -4286,12 +4286,12 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Tela Futura FSC 3-lagig 30 Rollen 50% Aktion 13.95 Schweizer Franken statt 28.00 Schweizer Franken</t>
+          <t>Oecoplan Toilettenpapier Camomille weiss 4-lagig 6 Rollen 4.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
@@ -4364,7 +4364,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
@@ -4437,153 +4437,153 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>6497242</t>
+          <t>4947421</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Super Soft WC-Papier Sensation, 4 Rollen 3-lagig</t>
+          <t>Oecoplan Taschentuch Calendula Box</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/super-soft-wc-papier-sensation-4-rollen-3-lagig/p/6497242</t>
+          <t>/de/inspiration-geschenke/saisonale-promotionen/gesundheit/oecoplan-taschentuch-calendula-box/p/4947421</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>4Rol</t>
+          <t>80ST</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F59" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Super Soft</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>0.81/1Rol</t>
+          <t>0.03/1ST</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Preis pro 1 Rolle</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>1Rol</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
+          <t>['inspiration-geschenke', 'saisonale-promotionen', 'gesundheit']</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Super Soft WC-Papier Sensation, 4 Rollen 3-lagig 3.25 Schweizer Franken</t>
+          <t>Oecoplan Taschentuch Calendula Box 2.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>4947421</t>
+          <t>6497242</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Oecoplan Taschentuch Calendula Box</t>
+          <t>Super Soft WC-Papier Sensation, 4 Rollen 3-lagig</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/saisonale-promotionen/gesundheit/oecoplan-taschentuch-calendula-box/p/4947421</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/super-soft-wc-papier-sensation-4-rollen-3-lagig/p/6497242</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>80ST</t>
+          <t>4Rol</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F60" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Super Soft</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>0.03/1ST</t>
+          <t>0.81/1Rol</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 1 Rolle</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>1Rol</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'saisonale-promotionen', 'gesundheit']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Oecoplan Taschentuch Calendula Box 2.30 Schweizer Franken</t>
+          <t>Super Soft WC-Papier Sensation, 4 Rollen 3-lagig 3.25 Schweizer Franken</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
@@ -4654,7 +4654,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
@@ -4711,7 +4711,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
@@ -4784,7 +4784,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
@@ -4857,7 +4857,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4930,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
@@ -5003,7 +5003,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
@@ -5076,36 +5076,36 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>6711017</t>
+          <t>4489512</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Tempo feuchte Limited Edition 3x  42ST</t>
+          <t>Tempo Toilettenpapier weiss 3-lagig 24 Rollen</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/tempo-feuchte-limited-edition/p/6711017</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tempo-toilettenpapier-weiss-3-lagig-24-rollen/p/4489512</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>3x 42ST</t>
+          <t>24Rol</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F68" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -5114,71 +5114,71 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>23.25</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>0.05/1ST</t>
+          <t>0.97/1Rol</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 1 Rolle</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>1Rol</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Tempo feuchte Limited Edition 3x  42ST 33% Aktion 6.90 Schweizer Franken statt 10.35 Schweizer Franken</t>
+          <t>Tempo Toilettenpapier weiss 3-lagig 24 Rollen 1+1 Aktion 23.25 Schweizer Franken</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>4489512</t>
+          <t>6711017</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Tempo Toilettenpapier weiss 3-lagig 24 Rollen</t>
+          <t>Tempo feuchte Limited Edition 3x  42ST</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tempo-toilettenpapier-weiss-3-lagig-24-rollen/p/4489512</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/tempo-feuchte-limited-edition/p/6711017</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>24Rol</t>
+          <t>3x 42ST</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F69" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -5187,42 +5187,42 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>23.25</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>0.97/1Rol</t>
+          <t>0.05/1ST</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Preis pro 1 Rolle</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>1Rol</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Tempo Toilettenpapier weiss 3-lagig 24 Rollen 1+1 Aktion 23.25 Schweizer Franken</t>
+          <t>Tempo feuchte Limited Edition 3x  42ST 33% Aktion 6.90 Schweizer Franken statt 10.35 Schweizer Franken</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
@@ -5295,7 +5295,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
@@ -5368,7 +5368,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
@@ -5425,7 +5425,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
@@ -5498,7 +5498,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
@@ -5555,135 +5555,135 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>3640534</t>
+          <t>6498157</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Kandoo Feuchttücher Sensitive 50 Stück</t>
+          <t>subito Haushaltspapier weiss 2 Rollen</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>/de/kosmetik-gesundheit/baby-kind/pflege-accessoires/feuchttuecher/kandoo-feuchttuecher-sensitive-50-stueck/p/3640534</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/subito-haushaltspapier-weiss-2-rollen/p/6498157</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>50ST</t>
-        </is>
-      </c>
-      <c r="E75" t="n">
-        <v>10</v>
-      </c>
+          <t>100BLT</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
       <c r="F75" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Kandoo</t>
+          <t>subito</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>0.08/1ST</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr">
         <is>
-          <t>['kosmetik-gesundheit', 'baby-kind', 'pflege-accessoires', 'feuchttuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>Kandoo Feuchttücher Sensitive 50 Stück 3.75 Schweizer Franken</t>
+          <t>subito Haushaltspapier weiss 2 Rollen 2.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>6498157</t>
+          <t>3640534</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>subito Haushaltspapier weiss 2 Rollen</t>
+          <t>Kandoo Feuchttücher Sensitive 50 Stück</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/subito-haushaltspapier-weiss-2-rollen/p/6498157</t>
+          <t>/de/kosmetik-gesundheit/baby-kind/pflege-accessoires/feuchttuecher/kandoo-feuchttuecher-sensitive-50-stueck/p/3640534</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>100BLT</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr"/>
+          <t>50ST</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>10</v>
+      </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>subito</t>
+          <t>Kandoo</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>0.08/1ST</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
+          <t>['kosmetik-gesundheit', 'baby-kind', 'pflege-accessoires', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>subito Haushaltspapier weiss 2 Rollen 2.75 Schweizer Franken</t>
+          <t>Kandoo Feuchttücher Sensitive 50 Stück 3.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
@@ -5756,7 +5756,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
@@ -5813,7 +5813,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
@@ -5886,7 +5886,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
@@ -5959,7 +5959,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
@@ -6032,7 +6032,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
@@ -6105,7 +6105,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
@@ -6178,7 +6178,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
@@ -6249,7 +6249,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
@@ -6322,7 +6322,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
@@ -6395,7 +6395,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
@@ -6468,7 +6468,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
@@ -6523,7 +6523,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
@@ -6596,7 +6596,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
@@ -6669,7 +6669,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
@@ -6740,7 +6740,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2022-07-16 07:00:40</t>
+          <t>2022-07-16 20:56:15</t>
         </is>
       </c>
     </row>
